--- a/Archivos de excel/Oficio ITAM.xlsx
+++ b/Archivos de excel/Oficio ITAM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acasillama\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acasillama\Desktop\Lab_Logistica\Archivos de excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Coordenadas!$A$1:$J$451</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -3047,6 +3047,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3058,12 +3064,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -13056,7 +13056,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="61">
+      <c r="B3" s="63">
         <v>6</v>
       </c>
       <c r="C3" s="44" t="s">
@@ -13068,13 +13068,13 @@
       <c r="E3" s="44">
         <v>60</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="63">
         <f>SUM(E3:E8)</f>
         <v>208</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="62"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="45" t="s">
         <v>621</v>
       </c>
@@ -13084,10 +13084,10 @@
       <c r="E4" s="45" t="s">
         <v>623</v>
       </c>
-      <c r="F4" s="62"/>
+      <c r="F4" s="64"/>
     </row>
     <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="62"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="45" t="s">
         <v>621</v>
       </c>
@@ -13097,10 +13097,10 @@
       <c r="E5" s="45" t="s">
         <v>623</v>
       </c>
-      <c r="F5" s="62"/>
+      <c r="F5" s="64"/>
     </row>
     <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="62"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="45" t="s">
         <v>621</v>
       </c>
@@ -13110,10 +13110,10 @@
       <c r="E6" s="45">
         <v>49</v>
       </c>
-      <c r="F6" s="62"/>
+      <c r="F6" s="64"/>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="62"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="45" t="s">
         <v>621</v>
       </c>
@@ -13123,10 +13123,10 @@
       <c r="E7" s="45">
         <v>49</v>
       </c>
-      <c r="F7" s="62"/>
+      <c r="F7" s="64"/>
     </row>
     <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="62"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="45" t="s">
         <v>621</v>
       </c>
@@ -13136,10 +13136,10 @@
       <c r="E8" s="45">
         <v>50</v>
       </c>
-      <c r="F8" s="62"/>
+      <c r="F8" s="64"/>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="63">
+      <c r="B9" s="65">
         <v>16</v>
       </c>
       <c r="C9" s="45" t="s">
@@ -13151,13 +13151,13 @@
       <c r="E9" s="45">
         <v>13</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F9" s="65">
         <f>SUM(E9:E24)</f>
         <v>132</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="62"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="45" t="s">
         <v>627</v>
       </c>
@@ -13167,10 +13167,10 @@
       <c r="E10" s="45">
         <v>13</v>
       </c>
-      <c r="F10" s="62"/>
+      <c r="F10" s="64"/>
     </row>
     <row r="11" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="62"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="45" t="s">
         <v>627</v>
       </c>
@@ -13180,10 +13180,10 @@
       <c r="E11" s="45">
         <v>13</v>
       </c>
-      <c r="F11" s="62"/>
+      <c r="F11" s="64"/>
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="62"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="45" t="s">
         <v>627</v>
       </c>
@@ -13193,10 +13193,10 @@
       <c r="E12" s="45">
         <v>13</v>
       </c>
-      <c r="F12" s="62"/>
+      <c r="F12" s="64"/>
     </row>
     <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="62"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="45" t="s">
         <v>627</v>
       </c>
@@ -13206,10 +13206,10 @@
       <c r="E13" s="45">
         <v>13</v>
       </c>
-      <c r="F13" s="62"/>
+      <c r="F13" s="64"/>
     </row>
     <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="62"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="45" t="s">
         <v>627</v>
       </c>
@@ -13219,10 +13219,10 @@
       <c r="E14" s="45">
         <v>13</v>
       </c>
-      <c r="F14" s="62"/>
+      <c r="F14" s="64"/>
     </row>
     <row r="15" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="62"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="45" t="s">
         <v>627</v>
       </c>
@@ -13232,10 +13232,10 @@
       <c r="E15" s="45">
         <v>13</v>
       </c>
-      <c r="F15" s="62"/>
+      <c r="F15" s="64"/>
     </row>
     <row r="16" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="62"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="45" t="s">
         <v>627</v>
       </c>
@@ -13245,10 +13245,10 @@
       <c r="E16" s="45">
         <v>13</v>
       </c>
-      <c r="F16" s="62"/>
+      <c r="F16" s="64"/>
     </row>
     <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="62"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="45" t="s">
         <v>627</v>
       </c>
@@ -13258,10 +13258,10 @@
       <c r="E17" s="45">
         <v>13</v>
       </c>
-      <c r="F17" s="62"/>
+      <c r="F17" s="64"/>
     </row>
     <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="62"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="45" t="s">
         <v>627</v>
       </c>
@@ -13271,10 +13271,10 @@
       <c r="E18" s="45">
         <v>15</v>
       </c>
-      <c r="F18" s="62"/>
+      <c r="F18" s="64"/>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="62"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="45" t="s">
         <v>627</v>
       </c>
@@ -13284,10 +13284,10 @@
       <c r="E19" s="47" t="s">
         <v>638</v>
       </c>
-      <c r="F19" s="62"/>
+      <c r="F19" s="64"/>
     </row>
     <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="62"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="45" t="s">
         <v>627</v>
       </c>
@@ -13297,10 +13297,10 @@
       <c r="E20" s="45" t="s">
         <v>638</v>
       </c>
-      <c r="F20" s="62"/>
+      <c r="F20" s="64"/>
     </row>
     <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="62"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="45" t="s">
         <v>627</v>
       </c>
@@ -13310,10 +13310,10 @@
       <c r="E21" s="45" t="s">
         <v>638</v>
       </c>
-      <c r="F21" s="62"/>
+      <c r="F21" s="64"/>
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="62"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="45" t="s">
         <v>627</v>
       </c>
@@ -13323,10 +13323,10 @@
       <c r="E22" s="45" t="s">
         <v>638</v>
       </c>
-      <c r="F22" s="62"/>
+      <c r="F22" s="64"/>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="62"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="45" t="s">
         <v>627</v>
       </c>
@@ -13336,10 +13336,10 @@
       <c r="E23" s="45" t="s">
         <v>638</v>
       </c>
-      <c r="F23" s="62"/>
+      <c r="F23" s="64"/>
     </row>
     <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="62"/>
+      <c r="B24" s="64"/>
       <c r="C24" s="45" t="s">
         <v>627</v>
       </c>
@@ -13349,10 +13349,10 @@
       <c r="E24" s="45" t="s">
         <v>638</v>
       </c>
-      <c r="F24" s="62"/>
+      <c r="F24" s="64"/>
     </row>
     <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="63">
+      <c r="B25" s="65">
         <v>9</v>
       </c>
       <c r="C25" s="45" t="s">
@@ -13364,13 +13364,13 @@
       <c r="E25" s="45">
         <v>12</v>
       </c>
-      <c r="F25" s="63">
+      <c r="F25" s="65">
         <f>SUM(E25:E33)</f>
         <v>108</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="62"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="45" t="s">
         <v>645</v>
       </c>
@@ -13380,10 +13380,10 @@
       <c r="E26" s="45">
         <v>12</v>
       </c>
-      <c r="F26" s="62"/>
+      <c r="F26" s="64"/>
     </row>
     <row r="27" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="62"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="45" t="s">
         <v>645</v>
       </c>
@@ -13393,10 +13393,10 @@
       <c r="E27" s="45">
         <v>12</v>
       </c>
-      <c r="F27" s="62"/>
+      <c r="F27" s="64"/>
     </row>
     <row r="28" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="62"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="45" t="s">
         <v>645</v>
       </c>
@@ -13406,10 +13406,10 @@
       <c r="E28" s="45">
         <v>12</v>
       </c>
-      <c r="F28" s="62"/>
+      <c r="F28" s="64"/>
     </row>
     <row r="29" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="62"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="45" t="s">
         <v>645</v>
       </c>
@@ -13419,10 +13419,10 @@
       <c r="E29" s="45">
         <v>12</v>
       </c>
-      <c r="F29" s="62"/>
+      <c r="F29" s="64"/>
     </row>
     <row r="30" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="62"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="45" t="s">
         <v>645</v>
       </c>
@@ -13432,10 +13432,10 @@
       <c r="E30" s="45">
         <v>12</v>
       </c>
-      <c r="F30" s="62"/>
+      <c r="F30" s="64"/>
     </row>
     <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="62"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="45" t="s">
         <v>645</v>
       </c>
@@ -13445,10 +13445,10 @@
       <c r="E31" s="45">
         <v>12</v>
       </c>
-      <c r="F31" s="62"/>
+      <c r="F31" s="64"/>
     </row>
     <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="62"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="45" t="s">
         <v>645</v>
       </c>
@@ -13458,10 +13458,10 @@
       <c r="E32" s="45">
         <v>12</v>
       </c>
-      <c r="F32" s="62"/>
+      <c r="F32" s="64"/>
     </row>
     <row r="33" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="64"/>
+      <c r="B33" s="66"/>
       <c r="C33" s="45" t="s">
         <v>645</v>
       </c>
@@ -13471,10 +13471,10 @@
       <c r="E33" s="45">
         <v>12</v>
       </c>
-      <c r="F33" s="64"/>
+      <c r="F33" s="66"/>
     </row>
     <row r="34" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="63">
+      <c r="B34" s="65">
         <v>18</v>
       </c>
       <c r="C34" s="45" t="s">
@@ -13486,13 +13486,13 @@
       <c r="E34" s="45">
         <v>16</v>
       </c>
-      <c r="F34" s="63">
+      <c r="F34" s="65">
         <f>SUM(E34:E51)</f>
         <v>286</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="62"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="45" t="s">
         <v>674</v>
       </c>
@@ -13502,10 +13502,10 @@
       <c r="E35" s="45">
         <v>16</v>
       </c>
-      <c r="F35" s="62"/>
+      <c r="F35" s="64"/>
     </row>
     <row r="36" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="62"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="45" t="s">
         <v>674</v>
       </c>
@@ -13515,10 +13515,10 @@
       <c r="E36" s="45">
         <v>16</v>
       </c>
-      <c r="F36" s="62"/>
+      <c r="F36" s="64"/>
     </row>
     <row r="37" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="62"/>
+      <c r="B37" s="64"/>
       <c r="C37" s="45" t="s">
         <v>674</v>
       </c>
@@ -13528,10 +13528,10 @@
       <c r="E37" s="45">
         <v>16</v>
       </c>
-      <c r="F37" s="62"/>
+      <c r="F37" s="64"/>
     </row>
     <row r="38" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="62"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="45" t="s">
         <v>674</v>
       </c>
@@ -13541,10 +13541,10 @@
       <c r="E38" s="45">
         <v>15</v>
       </c>
-      <c r="F38" s="62"/>
+      <c r="F38" s="64"/>
     </row>
     <row r="39" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="62"/>
+      <c r="B39" s="64"/>
       <c r="C39" s="45" t="s">
         <v>674</v>
       </c>
@@ -13554,10 +13554,10 @@
       <c r="E39" s="45">
         <v>16</v>
       </c>
-      <c r="F39" s="62"/>
+      <c r="F39" s="64"/>
     </row>
     <row r="40" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="62"/>
+      <c r="B40" s="64"/>
       <c r="C40" s="45" t="s">
         <v>674</v>
       </c>
@@ -13567,10 +13567,10 @@
       <c r="E40" s="45">
         <v>16</v>
       </c>
-      <c r="F40" s="62"/>
+      <c r="F40" s="64"/>
     </row>
     <row r="41" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="62"/>
+      <c r="B41" s="64"/>
       <c r="C41" s="45" t="s">
         <v>674</v>
       </c>
@@ -13580,10 +13580,10 @@
       <c r="E41" s="45">
         <v>16</v>
       </c>
-      <c r="F41" s="62"/>
+      <c r="F41" s="64"/>
     </row>
     <row r="42" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="62"/>
+      <c r="B42" s="64"/>
       <c r="C42" s="45" t="s">
         <v>674</v>
       </c>
@@ -13593,10 +13593,10 @@
       <c r="E42" s="45">
         <v>16</v>
       </c>
-      <c r="F42" s="62"/>
+      <c r="F42" s="64"/>
     </row>
     <row r="43" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="62"/>
+      <c r="B43" s="64"/>
       <c r="C43" s="45" t="s">
         <v>674</v>
       </c>
@@ -13606,10 +13606,10 @@
       <c r="E43" s="45">
         <v>15</v>
       </c>
-      <c r="F43" s="62"/>
+      <c r="F43" s="64"/>
     </row>
     <row r="44" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="62"/>
+      <c r="B44" s="64"/>
       <c r="C44" s="45" t="s">
         <v>674</v>
       </c>
@@ -13619,10 +13619,10 @@
       <c r="E44" s="45">
         <v>16</v>
       </c>
-      <c r="F44" s="62"/>
+      <c r="F44" s="64"/>
     </row>
     <row r="45" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="62"/>
+      <c r="B45" s="64"/>
       <c r="C45" s="45" t="s">
         <v>674</v>
       </c>
@@ -13632,10 +13632,10 @@
       <c r="E45" s="45">
         <v>16</v>
       </c>
-      <c r="F45" s="62"/>
+      <c r="F45" s="64"/>
     </row>
     <row r="46" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="62"/>
+      <c r="B46" s="64"/>
       <c r="C46" s="45" t="s">
         <v>674</v>
       </c>
@@ -13645,10 +13645,10 @@
       <c r="E46" s="45">
         <v>16</v>
       </c>
-      <c r="F46" s="62"/>
+      <c r="F46" s="64"/>
     </row>
     <row r="47" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="62"/>
+      <c r="B47" s="64"/>
       <c r="C47" s="45" t="s">
         <v>674</v>
       </c>
@@ -13658,10 +13658,10 @@
       <c r="E47" s="45">
         <v>16</v>
       </c>
-      <c r="F47" s="62"/>
+      <c r="F47" s="64"/>
     </row>
     <row r="48" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="62"/>
+      <c r="B48" s="64"/>
       <c r="C48" s="45" t="s">
         <v>674</v>
       </c>
@@ -13671,10 +13671,10 @@
       <c r="E48" s="45">
         <v>16</v>
       </c>
-      <c r="F48" s="62"/>
+      <c r="F48" s="64"/>
     </row>
     <row r="49" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="62"/>
+      <c r="B49" s="64"/>
       <c r="C49" s="45" t="s">
         <v>674</v>
       </c>
@@ -13684,10 +13684,10 @@
       <c r="E49" s="45">
         <v>16</v>
       </c>
-      <c r="F49" s="62"/>
+      <c r="F49" s="64"/>
     </row>
     <row r="50" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="62"/>
+      <c r="B50" s="64"/>
       <c r="C50" s="45" t="s">
         <v>674</v>
       </c>
@@ -13697,10 +13697,10 @@
       <c r="E50" s="45">
         <v>16</v>
       </c>
-      <c r="F50" s="62"/>
+      <c r="F50" s="64"/>
     </row>
     <row r="51" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="62"/>
+      <c r="B51" s="64"/>
       <c r="C51" s="45" t="s">
         <v>674</v>
       </c>
@@ -13710,16 +13710,16 @@
       <c r="E51" s="45">
         <v>16</v>
       </c>
-      <c r="F51" s="62"/>
+      <c r="F51" s="64"/>
     </row>
     <row r="52" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="40">
         <v>49</v>
       </c>
-      <c r="C52" s="65" t="s">
+      <c r="C52" s="61" t="s">
         <v>675</v>
       </c>
-      <c r="D52" s="66"/>
+      <c r="D52" s="62"/>
       <c r="E52" s="41">
         <f>SUM(E3:E51)</f>
         <v>734</v>
@@ -13731,15 +13731,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B9:B24"/>
+    <mergeCell ref="B25:B33"/>
+    <mergeCell ref="B34:B51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="F3:F8"/>
     <mergeCell ref="F9:F24"/>
     <mergeCell ref="F25:F33"/>
     <mergeCell ref="F34:F51"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="B9:B24"/>
-    <mergeCell ref="B25:B33"/>
-    <mergeCell ref="B34:B51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13753,10 +13753,10 @@
   <dimension ref="A1:W451"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B420" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A447" sqref="A447"/>
+      <selection pane="bottomRight" activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28518,7 +28518,7 @@
         <v>37</v>
       </c>
       <c r="I448" s="50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J448" s="50" t="s">
         <v>16</v>
